--- a/FreedomHouse/ClearData/freedom_house.xlsx
+++ b/FreedomHouse/ClearData/freedom_house.xlsx
@@ -5,22 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\DataProcessing\FreedomHouse\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Laba1DataProcessing\FreedomHouse\ClearData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F54B90-C71E-46CC-955C-742B5DFCFE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC51CD0-85FF-4387-8620-C56145DB09AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="2010" windowWidth="31980" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40620" yWindow="2355" windowWidth="31980" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="24">
   <si>
     <t>Country/Territory</t>
   </si>
@@ -147,11 +150,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -167,6 +174,1324 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Право на объединение</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9441-43CC-BD0D-75F4E0C7235B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Свобода выражения</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9441-43CC-BD0D-75F4E0C7235B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="517771087"/>
+        <c:axId val="517770607"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="517771087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t> Год</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517770607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="517770607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Коэффициент </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Freedom House</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517771087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>293077</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EBE27F-0978-47C4-8297-18528107CF3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1">
+            <v>2010</v>
+          </cell>
+          <cell r="B1">
+            <v>4</v>
+          </cell>
+          <cell r="C1">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>2015</v>
+          </cell>
+          <cell r="B2">
+            <v>4</v>
+          </cell>
+          <cell r="C2">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2025</v>
+          </cell>
+          <cell r="B3">
+            <v>1</v>
+          </cell>
+          <cell r="C3">
+            <v>4</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+      <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,6 +1857,9 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>3912</v>
+      </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -542,57 +1870,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>23</v>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+      <c r="Q2">
         <v>4</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
       <c r="R2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="T2">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>150</v>
+        <v>3706</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -604,57 +1932,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2024</v>
+        <v>2007</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
         <v>23</v>
       </c>
-      <c r="N3">
-        <v>4</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>4</v>
-      </c>
-      <c r="S3">
-        <v>9</v>
-      </c>
       <c r="T3">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>360</v>
+        <v>3499</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -666,57 +1994,57 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
         <v>23</v>
       </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="R4">
-        <v>5</v>
-      </c>
-      <c r="S4">
-        <v>11</v>
-      </c>
       <c r="T4">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>570</v>
+        <v>3290</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -728,57 +2056,57 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2022</v>
+        <v>2009</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="S5">
         <v>23</v>
       </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5">
-        <v>7</v>
-      </c>
-      <c r="S5">
-        <v>14</v>
-      </c>
       <c r="T5">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>780</v>
+        <v>3081</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -790,57 +2118,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
-        <v>23</v>
+      <c r="M6">
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R6">
         <v>7</v>
       </c>
       <c r="S6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T6">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>990</v>
+        <v>2872</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -852,57 +2180,57 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>23</v>
+      <c r="M7">
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7">
         <v>7</v>
       </c>
       <c r="S7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T7">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1198</v>
+        <v>2663</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -914,57 +2242,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>23</v>
+      <c r="M8">
+        <v>0</v>
       </c>
       <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
         <v>5</v>
       </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>3</v>
-      </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="S8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="T8">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1407</v>
+        <v>2454</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -976,57 +2304,57 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>23</v>
+      <c r="M9">
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <v>7</v>
       </c>
       <c r="S9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T9">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1616</v>
+        <v>2245</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1038,25 +2366,25 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1065,13 +2393,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -1080,15 +2408,15 @@
         <v>7</v>
       </c>
       <c r="S10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T10">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1826</v>
+        <v>2036</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1100,7 +2428,7 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1130,27 +2458,27 @@
         <v>7</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q11">
         <v>2</v>
       </c>
       <c r="R11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T11">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2036</v>
+        <v>1826</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -1162,7 +2490,7 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1192,27 +2520,27 @@
         <v>7</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>2</v>
       </c>
       <c r="R12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T12">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2245</v>
+        <v>1616</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1224,40 +2552,40 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>5</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>7</v>
-      </c>
       <c r="O13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -1266,15 +2594,15 @@
         <v>7</v>
       </c>
       <c r="S13">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="T13">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2454</v>
+        <v>1407</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1286,57 +2614,57 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14">
         <v>5</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>7</v>
-      </c>
       <c r="O14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R14">
         <v>7</v>
       </c>
       <c r="S14">
+        <v>15</v>
+      </c>
+      <c r="T14">
         <v>20</v>
-      </c>
-      <c r="T14">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2663</v>
+        <v>1198</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1348,57 +2676,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15">
         <v>5</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>7</v>
-      </c>
       <c r="O15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R15">
         <v>7</v>
       </c>
       <c r="S15">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="T15">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2872</v>
+        <v>990</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1410,57 +2738,57 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16">
         <v>5</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>7</v>
-      </c>
       <c r="O16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R16">
         <v>7</v>
       </c>
       <c r="S16">
+        <v>15</v>
+      </c>
+      <c r="T16">
         <v>20</v>
-      </c>
-      <c r="T16">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>3081</v>
+        <v>780</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -1472,57 +2800,57 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17">
         <v>5</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>7</v>
-      </c>
       <c r="O17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R17">
         <v>7</v>
       </c>
       <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17">
         <v>20</v>
-      </c>
-      <c r="T17">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>3290</v>
+        <v>570</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1534,57 +2862,57 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2009</v>
+        <v>2022</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18">
         <v>5</v>
       </c>
-      <c r="I18">
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
         <v>2</v>
       </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>8</v>
-      </c>
-      <c r="O18">
-        <v>8</v>
-      </c>
-      <c r="P18">
-        <v>4</v>
-      </c>
       <c r="Q18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R18">
         <v>7</v>
       </c>
       <c r="S18">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="T18">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>3499</v>
+        <v>360</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1596,57 +2924,57 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>2008</v>
+        <v>2023</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19">
         <v>5</v>
       </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>9</v>
-      </c>
       <c r="O19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S19">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="T19">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>3706</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1658,58 +2986,56 @@
         <v>21</v>
       </c>
       <c r="E20">
-        <v>2007</v>
+        <v>2024</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>0</v>
+      <c r="M20" t="s">
+        <v>23</v>
       </c>
       <c r="N20">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
         <v>4</v>
       </c>
-      <c r="Q20">
-        <v>4</v>
-      </c>
-      <c r="R20">
-        <v>7</v>
-      </c>
       <c r="S20">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="T20">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>3912</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -1720,55 +3046,236 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2006</v>
+        <v>2025</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
+      </c>
+      <c r="S21">
+        <v>8</v>
+      </c>
+      <c r="T21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2010</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
         <v>5</v>
       </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>11</v>
-      </c>
-      <c r="O21">
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>7</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28">
+        <v>7</v>
+      </c>
+      <c r="S28">
+        <v>20</v>
+      </c>
+      <c r="T28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>2015</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>7</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <v>4</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>16</v>
+      </c>
+      <c r="T29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>2025</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="S30">
         <v>8</v>
       </c>
-      <c r="P21">
-        <v>6</v>
-      </c>
-      <c r="Q21">
-        <v>4</v>
-      </c>
-      <c r="R21">
-        <v>6</v>
-      </c>
-      <c r="S21">
-        <v>24</v>
-      </c>
-      <c r="T21">
-        <v>35</v>
+      <c r="T30">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T21">
+    <sortCondition ref="E1:E21"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>